--- a/BackTest/2020-01-20 BackTest AOA.xlsx
+++ b/BackTest/2020-01-20 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>51670.77350759367</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2403854.773507594</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1890146.536207594</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1745571.607707594</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4906488.607707594</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1550388.607707594</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>4062232.844707593</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>565159.8447075933</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2358319.155292407</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2453770.826092407</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-5732439.956192407</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-7049547.341392407</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-7049547.341392407</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-7222099.058792408</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-6961412.058792408</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-6961412.058792408</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-6961412.058792408</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-8199554.058792408</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-8261210.557992408</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-5178221.557992408</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-5178221.557992408</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-6314836.557992408</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-4820398.557992408</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-8069628.557992408</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-8069628.557992408</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-8069358.557992408</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-8070302.547392408</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-9070302.547392409</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-7371341.547392409</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-10873641.54739241</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-10873641.54739241</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-10868641.54739241</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-10868641.54739241</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-13680085.54739241</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-17255026.54739241</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-17255026.54739241</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-17763607.25399241</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-17502588.25399241</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-20706437.25399241</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-17777068.25399241</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-18393591.25399241</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-18383591.25399241</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-18404958.77539241</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-18404958.77539241</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-15095931.36869241</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-15771293.36869241</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-14263134.36869241</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-16980657.36869241</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-14058798.36869241</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-11125093.36869241</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-10907600.05549241</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-13740906.05549241</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-11620362.05549241</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-15177752.05549241</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-16964491.05549241</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-18508959.24239241</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-18508959.24239241</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-12587751.78319241</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-14913638.78319241</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-15750897.78319241</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-15750897.78319241</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-18215536.85399241</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-21909488.61069242</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-21174518.92879242</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-20911811.92879242</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-24313131.92879242</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-24175853.73849242</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-25467332.73849242</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-22261080.73849242</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-22261080.73849242</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-22660828.73849242</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-22525772.77039242</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-20366742.77039242</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-20366742.77039242</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-20366742.77039242</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-21698678.77039242</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-22547930.77039242</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-44011845.40855843</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-45943949.04675843</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-47377149.31905843</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-48645627.73355843</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-48761365.78975843</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-48761365.78975843</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-47246419.73415843</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-50345793.73415843</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-51262496.55105843</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-51852882.21455843</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10351,11 +10351,17 @@
         <v>-52542898.08194399</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>1.781</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10390,17 @@
         <v>-51780954.52991136</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>1.78</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10429,17 @@
         <v>-52967295.01011136</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>1.79</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +10468,17 @@
         <v>-53666723.04101136</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>1.774</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,15 +10507,17 @@
         <v>-50488305.90801136</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>1.773</v>
       </c>
-      <c r="J306" t="n">
-        <v>1.773</v>
-      </c>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10523,12 +10549,10 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1.773</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L307" t="n">
@@ -10562,12 +10586,10 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1.773</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L308" t="n">
@@ -10602,7 +10624,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10635,7 +10661,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10668,7 +10698,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10697,15 +10731,15 @@
         <v>-53121050.52991136</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>1.802</v>
-      </c>
-      <c r="J312" t="n">
-        <v>1.802</v>
-      </c>
-      <c r="K312" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10737,12 +10771,10 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>1.802</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L313" t="n">
@@ -10776,12 +10808,10 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>1.802</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L314" t="n">
@@ -10816,7 +10846,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10849,7 +10883,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10882,7 +10920,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10915,7 +10957,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10948,7 +10994,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10981,7 +11031,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11014,7 +11068,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11047,7 +11105,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11080,7 +11142,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11113,7 +11179,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11146,7 +11216,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11179,7 +11253,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11212,7 +11290,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11245,7 +11327,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11278,7 +11364,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11311,7 +11401,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11344,7 +11438,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11377,7 +11475,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11410,7 +11512,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11443,7 +11549,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11476,7 +11586,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11509,7 +11623,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11542,7 +11660,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11575,7 +11697,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11608,7 +11734,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11641,7 +11771,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11670,15 +11804,15 @@
         <v>-56544289.11471136</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="J341" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="K341" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11710,12 +11844,10 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>1.809</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L342" t="n">
@@ -11746,17 +11878,13 @@
         <v>-56553147.70861136</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="J343" t="n">
-        <v>1.809</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -11791,7 +11919,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11824,7 +11956,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11857,7 +11993,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11890,7 +12030,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11923,7 +12067,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11952,15 +12100,13 @@
         <v>-60710536.74721136</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>1.799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L349" t="n">
@@ -11991,11 +12137,9 @@
         <v>-60710153.12301136</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>1.799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -12030,11 +12174,9 @@
         <v>-60710153.12301136</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>1.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12069,11 +12211,9 @@
         <v>-60710153.12301136</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>1.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -12108,11 +12248,9 @@
         <v>-60710853.12301136</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>1.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -12147,11 +12285,9 @@
         <v>-60697747.43081136</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>1.789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -12164,6 +12300,6 @@
       <c r="M354" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest AOA.xlsx
+++ b/BackTest/2020-01-20 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>1550388.607707594</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1642207.537807594</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1642477.537807594</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>965783.5378075936</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>4062232.844707593</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>565159.8447075933</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2358319.155292407</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2453770.826092407</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-5906413.707792407</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-5918445.268692407</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-5918445.268692407</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-6213396.125392407</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-6213396.125392407</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-6088171.145292407</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3685559.341392407</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-6961412.058792408</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-6961412.058792408</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-17763607.25399241</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-17502588.25399241</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-20706437.25399241</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-17777068.25399241</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-18393591.25399241</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-18383591.25399241</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-18404958.77539241</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-18404958.77539241</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-18371345.55649241</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-18371615.55649241</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-18394230.69689241</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-18409856.91829241</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-17798513.29029241</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-17798513.29029241</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-17772040.19499241</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-17887412.95439241</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-17887412.95439241</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-17887412.95439241</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-17887146.95439241</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-17979879.36869241</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-17979879.36869241</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-15095931.36869241</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-11125093.36869241</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-11124828.36869241</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-11125093.36869241</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-16412069.73529241</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-14962431.73529241</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-14962431.73529241</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-13454892.18519241</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-14530304.90539241</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-19427278.79109241</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-19359227.18479241</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-16628011.21479241</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-17203770.85399241</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-21853111.85399241</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-18674169.53669242</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-20366742.77039242</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-20366742.77039242</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-21698678.77039242</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-24074072.77039242</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-22547930.77039242</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-26284066.57879242</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-25753760.23409242</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-24381174.23409242</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-37894125.34565842</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-39242360.33465842</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-39797927.21855842</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-39960802.89475843</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10153,10 +10153,14 @@
         <v>-52081302.09165843</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="J296" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
@@ -10186,11 +10190,19 @@
         <v>-51153733.67195843</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J297" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10234,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10270,19 @@
         <v>-51380556.69415843</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J299" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10314,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +10353,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,15 +10389,15 @@
         <v>-52542898.08194399</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L302" t="n">
@@ -10395,7 +10433,9 @@
       <c r="I303" t="n">
         <v>1.78</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10429,12 +10469,12 @@
         <v>-52967295.01011136</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10468,12 +10508,12 @@
         <v>-53666723.04101136</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>1.774</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10507,12 +10547,12 @@
         <v>-50488305.90801136</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>1.773</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10549,7 +10589,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10586,7 +10628,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10623,7 +10667,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10660,7 +10706,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10697,7 +10745,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10734,7 +10784,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10771,7 +10823,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10808,7 +10862,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10845,7 +10901,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10882,7 +10940,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10916,17 +10976,19 @@
         <v>-53361413.58171137</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L317" t="n">
-        <v>1</v>
+        <v>1.020323579065842</v>
       </c>
       <c r="M317" t="inlineStr"/>
     </row>
@@ -10953,15 +11015,11 @@
         <v>-53400025.59561136</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10994,11 +11052,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11031,11 +11085,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11064,15 +11114,11 @@
         <v>-53716315.41081136</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11105,11 +11151,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11142,11 +11184,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11179,11 +11217,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11216,11 +11250,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11253,11 +11283,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11290,11 +11316,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11327,11 +11349,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11364,11 +11382,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11401,11 +11415,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11438,11 +11448,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11475,11 +11481,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11512,11 +11514,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11549,11 +11547,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11586,11 +11580,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11623,11 +11613,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11656,15 +11642,11 @@
         <v>-56143300.11261136</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11693,15 +11675,11 @@
         <v>-60143844.16391136</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11734,11 +11712,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11771,11 +11745,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11808,11 +11778,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11845,11 +11811,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11882,11 +11844,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11919,11 +11877,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11956,11 +11910,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11993,11 +11943,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12026,15 +11972,11 @@
         <v>-60711092.74721136</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12063,15 +12005,11 @@
         <v>-60710536.74721136</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12100,15 +12038,11 @@
         <v>-60710536.74721136</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12141,11 +12075,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12178,11 +12108,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12215,11 +12141,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12252,11 +12174,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12289,17 +12207,13 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
       <c r="M354" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest AOA.xlsx
+++ b/BackTest/2020-01-20 BackTest AOA.xlsx
@@ -451,7 +451,7 @@
         <v>51670.77350759367</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2403854.773507594</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1890146.536207594</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1745571.607707594</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4906488.607707594</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1550388.607707594</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1550388.607707594</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1642207.537807594</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1642477.537807594</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>965783.5378075936</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-5906413.707792407</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-5918445.268692407</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-5918445.268692407</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-6213396.125392407</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-6213396.125392407</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-6088171.145292407</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3685559.341392407</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-7049547.341392407</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-6961412.058792408</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-6961412.058792408</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-8199554.058792408</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-10868641.54739241</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-13680085.54739241</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-17255026.54739241</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-17763607.25399241</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-17502588.25399241</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-20706437.25399241</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-17777068.25399241</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-18383591.25399241</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-18404958.77539241</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-18404958.77539241</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-18371345.55649241</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-18371615.55649241</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-18394230.69689241</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-18409856.91829241</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-17798513.29029241</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-17798513.29029241</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-17772040.19499241</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-17887412.95439241</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-17887412.95439241</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-17887412.95439241</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-17887146.95439241</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-17979879.36869241</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-17979879.36869241</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-15095931.36869241</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-11125093.36869241</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-11124828.36869241</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-11125093.36869241</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-16412069.73529241</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-14962431.73529241</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-14962431.73529241</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-13454892.18519241</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-14530304.90539241</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-14530304.90539241</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-14840734.78319241</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-16633863.18479241</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-16633863.18479241</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-16633323.18479241</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-15811190.18479241</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-17398982.21479242</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-18215536.85399241</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-21853111.85399241</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-21909488.61069242</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-21970833.53669242</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-18674169.53669242</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-22965987.16429242</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-21174518.92879242</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-22660828.73849242</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-20366742.77039242</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-18712317.77039242</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-21698678.77039242</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-24767396.77039242</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-23291743.77039242</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-23291743.77039242</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-23291743.77039242</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-22547930.77039242</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-23775413.77039242</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-26193635.77039242</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-26280066.57879242</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-26284066.57879242</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-25753760.23409242</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-24381174.23409242</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-27621136.23409242</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-27621136.23409242</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-28685308.62679242</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-30545046.62679242</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-30545046.62679242</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-29706001.62679242</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-33249758.62679242</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-33249488.62679242</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-34918758.62679242</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-38182291.62679242</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-38855289.62679242</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-32578666.62679242</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-33720100.62679242</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-35804338.62679242</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-35939314.74939242</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-37894125.34565842</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-39242360.33465842</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-39797927.21855842</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-39960802.89475843</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10153,14 +10153,10 @@
         <v>-52081302.09165843</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="J296" t="n">
-        <v>1.777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
@@ -10190,19 +10186,11 @@
         <v>-51153733.67195843</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1.774</v>
-      </c>
-      <c r="J297" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10234,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10270,19 +10252,11 @@
         <v>-51380556.69415843</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J299" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10314,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10353,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10392,14 +10354,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10428,19 +10384,11 @@
         <v>-51780954.52991136</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J303" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10472,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10511,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10550,14 +10486,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10589,14 +10519,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10628,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10667,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10706,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10745,14 +10651,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10784,14 +10684,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10823,14 +10717,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10862,14 +10750,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10901,14 +10783,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10940,14 +10816,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10976,19 +10846,13 @@
         <v>-53361413.58171137</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
-        <v>1.020323579065842</v>
+        <v>1</v>
       </c>
       <c r="M317" t="inlineStr"/>
     </row>
@@ -11015,7 +10879,7 @@
         <v>-53400025.59561136</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11114,7 +10978,7 @@
         <v>-53716315.41081136</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11444,11 +11308,17 @@
         <v>-54392576.07851136</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>1.793</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11481,7 +11351,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11514,7 +11388,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11547,7 +11425,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11580,7 +11462,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11613,7 +11499,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11642,11 +11532,15 @@
         <v>-56143300.11261136</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11675,11 +11569,15 @@
         <v>-60143844.16391136</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11712,7 +11610,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11745,7 +11647,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11778,7 +11684,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11811,7 +11721,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11844,7 +11758,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11877,7 +11795,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11910,7 +11832,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11943,7 +11869,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11972,11 +11902,15 @@
         <v>-60711092.74721136</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12005,11 +11939,15 @@
         <v>-60710536.74721136</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12038,11 +11976,15 @@
         <v>-60710536.74721136</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12075,7 +12017,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12108,7 +12054,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12141,7 +12091,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12170,11 +12124,17 @@
         <v>-60710853.12301136</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>1.8</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12203,11 +12163,17 @@
         <v>-60697747.43081136</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>1.789</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-20 BackTest AOA.xlsx
+++ b/BackTest/2020-01-20 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M354"/>
+  <dimension ref="A1:L354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3754381</v>
       </c>
       <c r="G2" t="n">
-        <v>51670.77350759367</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2352184</v>
       </c>
       <c r="G3" t="n">
-        <v>2403854.773507594</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>513708.2373</v>
       </c>
       <c r="G4" t="n">
-        <v>1890146.536207594</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>144574.9285</v>
       </c>
       <c r="G5" t="n">
-        <v>1745571.607707594</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3160917</v>
       </c>
       <c r="G6" t="n">
-        <v>4906488.607707594</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>3356100</v>
       </c>
       <c r="G7" t="n">
-        <v>1550388.607707594</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>736800</v>
       </c>
       <c r="G8" t="n">
-        <v>1550388.607707594</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>91818.9301</v>
       </c>
       <c r="G9" t="n">
-        <v>1642207.537807594</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>270</v>
       </c>
       <c r="G10" t="n">
-        <v>1642477.537807594</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>676694</v>
       </c>
       <c r="G11" t="n">
-        <v>965783.5378075936</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4173453</v>
       </c>
       <c r="G12" t="n">
-        <v>5139236.537807593</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2660483.6931</v>
       </c>
       <c r="G13" t="n">
-        <v>2478752.844707593</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1484651</v>
       </c>
       <c r="G14" t="n">
-        <v>2478752.844707593</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1583480</v>
       </c>
       <c r="G15" t="n">
-        <v>4062232.844707593</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3497073</v>
       </c>
       <c r="G16" t="n">
-        <v>565159.8447075933</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2946601</v>
       </c>
       <c r="G17" t="n">
-        <v>565159.8447075933</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>270</v>
       </c>
       <c r="G18" t="n">
-        <v>565429.8447075933</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2923749</v>
       </c>
       <c r="G19" t="n">
-        <v>-2358319.155292407</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3599493</v>
       </c>
       <c r="G20" t="n">
-        <v>-2358319.155292407</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>690971</v>
       </c>
       <c r="G21" t="n">
-        <v>-2358319.155292407</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>56376.7567</v>
       </c>
       <c r="G22" t="n">
-        <v>-2301942.398592407</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>151828.4275</v>
       </c>
       <c r="G23" t="n">
-        <v>-2453770.826092407</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>648204</v>
       </c>
       <c r="G24" t="n">
-        <v>-1805566.826092407</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3152938</v>
       </c>
       <c r="G25" t="n">
-        <v>1347371.173907593</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>3450015</v>
       </c>
       <c r="G26" t="n">
-        <v>-2102643.826092407</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>790703</v>
       </c>
       <c r="G27" t="n">
-        <v>-2102643.826092407</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>958620</v>
       </c>
       <c r="G28" t="n">
-        <v>-1144023.826092407</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>3381187</v>
       </c>
       <c r="G29" t="n">
-        <v>-4525210.826092407</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3044216</v>
       </c>
       <c r="G30" t="n">
-        <v>-4525210.826092407</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1018949.8589</v>
       </c>
       <c r="G31" t="n">
-        <v>-5544160.684992407</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3208467</v>
       </c>
       <c r="G32" t="n">
-        <v>-2335693.684992407</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2649964</v>
       </c>
       <c r="G33" t="n">
-        <v>-2335693.684992407</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2314569</v>
       </c>
       <c r="G34" t="n">
-        <v>-4650262.684992407</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>3036245</v>
       </c>
       <c r="G35" t="n">
-        <v>-1614017.684992407</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>4226852.8082</v>
       </c>
       <c r="G36" t="n">
-        <v>-5840870.493192407</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>912504.0971</v>
       </c>
       <c r="G37" t="n">
-        <v>-5840870.493192407</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>159346.0438</v>
       </c>
       <c r="G38" t="n">
-        <v>-5681524.449392407</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>120000</v>
       </c>
       <c r="G39" t="n">
-        <v>-5801524.449392407</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>280000</v>
       </c>
       <c r="G40" t="n">
-        <v>-6081524.449392407</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>483566.4315</v>
       </c>
       <c r="G41" t="n">
-        <v>-6081524.449392407</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>145912.0007</v>
       </c>
       <c r="G42" t="n">
-        <v>-6081524.449392407</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>328261.0146</v>
       </c>
       <c r="G43" t="n">
-        <v>-6081524.449392407</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>42865.9312</v>
       </c>
       <c r="G44" t="n">
-        <v>-6081524.449392407</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>349084.4932</v>
       </c>
       <c r="G45" t="n">
-        <v>-5732439.956192407</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>173973.7516</v>
       </c>
       <c r="G46" t="n">
-        <v>-5906413.707792407</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>12031.5609</v>
       </c>
       <c r="G47" t="n">
-        <v>-5918445.268692407</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>152178.382</v>
       </c>
       <c r="G48" t="n">
-        <v>-5918445.268692407</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>164209.9429</v>
       </c>
       <c r="G49" t="n">
-        <v>-5918445.268692407</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>316388.3249</v>
       </c>
       <c r="G50" t="n">
-        <v>-6234833.593592407</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>21437.4682</v>
       </c>
       <c r="G51" t="n">
-        <v>-6213396.125392407</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>463946.4418</v>
       </c>
       <c r="G52" t="n">
-        <v>-6213396.125392407</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>56796.0787</v>
       </c>
       <c r="G53" t="n">
-        <v>-6156600.046692407</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>68428.9014</v>
       </c>
       <c r="G54" t="n">
-        <v>-6088171.145292407</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2402611.8039</v>
       </c>
       <c r="G55" t="n">
-        <v>-3685559.341392407</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>3363988</v>
       </c>
       <c r="G56" t="n">
-        <v>-7049547.341392407</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1484263.2689</v>
       </c>
       <c r="G57" t="n">
-        <v>-7049547.341392407</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>172551.7174</v>
       </c>
       <c r="G58" t="n">
-        <v>-7222099.058792408</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>260687</v>
       </c>
       <c r="G59" t="n">
-        <v>-6961412.058792408</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>2801637</v>
       </c>
       <c r="G60" t="n">
-        <v>-6961412.058792408</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>3781931</v>
       </c>
       <c r="G61" t="n">
-        <v>-6961412.058792408</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1238142</v>
       </c>
       <c r="G62" t="n">
-        <v>-8199554.058792408</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>139159.5364</v>
       </c>
       <c r="G63" t="n">
-        <v>-8060394.522392408</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>200816.0356</v>
       </c>
       <c r="G64" t="n">
-        <v>-8261210.557992408</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>3082989</v>
       </c>
       <c r="G65" t="n">
-        <v>-5178221.557992408</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>2869431</v>
       </c>
       <c r="G66" t="n">
-        <v>-5178221.557992408</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1136615</v>
       </c>
       <c r="G67" t="n">
-        <v>-6314836.557992408</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1494438</v>
       </c>
       <c r="G68" t="n">
-        <v>-4820398.557992408</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>3249230</v>
       </c>
       <c r="G69" t="n">
-        <v>-8069628.557992408</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2062862</v>
       </c>
       <c r="G70" t="n">
-        <v>-8069628.557992408</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>270</v>
       </c>
       <c r="G71" t="n">
-        <v>-8069358.557992408</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>943.9894</v>
       </c>
       <c r="G72" t="n">
-        <v>-8070302.547392408</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1000000</v>
       </c>
       <c r="G73" t="n">
-        <v>-9070302.547392409</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1698961</v>
       </c>
       <c r="G74" t="n">
-        <v>-7371341.547392409</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>3502300</v>
       </c>
       <c r="G75" t="n">
-        <v>-10873641.54739241</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>2040235</v>
       </c>
       <c r="G76" t="n">
-        <v>-10873641.54739241</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>5000</v>
       </c>
       <c r="G77" t="n">
-        <v>-10868641.54739241</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>240362</v>
       </c>
       <c r="G78" t="n">
-        <v>-10868641.54739241</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>2811444</v>
       </c>
       <c r="G79" t="n">
-        <v>-13680085.54739241</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>3574941</v>
       </c>
       <c r="G80" t="n">
-        <v>-17255026.54739241</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>622049</v>
       </c>
       <c r="G81" t="n">
-        <v>-17255026.54739241</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>508580.7066</v>
       </c>
       <c r="G82" t="n">
-        <v>-17763607.25399241</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>261019</v>
       </c>
       <c r="G83" t="n">
-        <v>-17502588.25399241</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>3203849</v>
       </c>
       <c r="G84" t="n">
-        <v>-20706437.25399241</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>2929369</v>
       </c>
       <c r="G85" t="n">
-        <v>-17777068.25399241</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>616523</v>
       </c>
       <c r="G86" t="n">
-        <v>-18393591.25399241</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>10000</v>
       </c>
       <c r="G87" t="n">
-        <v>-18383591.25399241</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>21367.5214</v>
       </c>
       <c r="G88" t="n">
-        <v>-18404958.77539241</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>48792.7936</v>
       </c>
       <c r="G89" t="n">
-        <v>-18404958.77539241</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>114.2425</v>
       </c>
       <c r="G90" t="n">
-        <v>-18404958.77539241</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>33613.2189</v>
       </c>
       <c r="G91" t="n">
-        <v>-18371345.55649241</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>270</v>
       </c>
       <c r="G92" t="n">
-        <v>-18371615.55649241</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>22615.1404</v>
       </c>
       <c r="G93" t="n">
-        <v>-18394230.69689241</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>15626.2214</v>
       </c>
       <c r="G94" t="n">
-        <v>-18409856.91829241</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>611343.628</v>
       </c>
       <c r="G95" t="n">
-        <v>-17798513.29029241</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>207124.2241</v>
       </c>
       <c r="G96" t="n">
-        <v>-17798513.29029241</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>26473.0953</v>
       </c>
       <c r="G97" t="n">
-        <v>-17772040.19499241</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>115372.7594</v>
       </c>
       <c r="G98" t="n">
-        <v>-17887412.95439241</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>676230.438</v>
       </c>
       <c r="G99" t="n">
-        <v>-17887412.95439241</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>804728.324</v>
       </c>
       <c r="G100" t="n">
-        <v>-17887412.95439241</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>266</v>
       </c>
       <c r="G101" t="n">
-        <v>-17887146.95439241</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>92732.4143</v>
       </c>
       <c r="G102" t="n">
-        <v>-17979879.36869241</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>1806851.161</v>
       </c>
       <c r="G103" t="n">
-        <v>-17979879.36869241</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>2883948</v>
       </c>
       <c r="G104" t="n">
-        <v>-15095931.36869241</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>2762163</v>
       </c>
       <c r="G105" t="n">
-        <v>-15095931.36869241</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>675362</v>
       </c>
       <c r="G106" t="n">
-        <v>-15771293.36869241</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1508159</v>
       </c>
       <c r="G107" t="n">
-        <v>-14263134.36869241</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>2717523</v>
       </c>
       <c r="G108" t="n">
-        <v>-16980657.36869241</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>2921859</v>
       </c>
       <c r="G109" t="n">
-        <v>-14058798.36869241</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>7979.4779</v>
       </c>
       <c r="G110" t="n">
-        <v>-14058798.36869241</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>2933705</v>
       </c>
       <c r="G111" t="n">
-        <v>-11125093.36869241</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>1243668</v>
       </c>
       <c r="G112" t="n">
-        <v>-11125093.36869241</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>265</v>
       </c>
       <c r="G113" t="n">
-        <v>-11124828.36869241</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>265</v>
       </c>
       <c r="G114" t="n">
-        <v>-11125093.36869241</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>530</v>
       </c>
       <c r="G115" t="n">
-        <v>-11125093.36869241</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>27516.6868</v>
       </c>
       <c r="G116" t="n">
-        <v>-11152610.05549241</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>245010</v>
       </c>
       <c r="G117" t="n">
-        <v>-10907600.05549241</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>2833306</v>
       </c>
       <c r="G118" t="n">
-        <v>-13740906.05549241</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>2120544</v>
       </c>
       <c r="G119" t="n">
-        <v>-11620362.05549241</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>3557390</v>
       </c>
       <c r="G120" t="n">
-        <v>-15177752.05549241</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>1571037</v>
       </c>
       <c r="G121" t="n">
-        <v>-15177752.05549241</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>3204174</v>
       </c>
       <c r="G122" t="n">
-        <v>-11973578.05549241</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>2905692</v>
       </c>
       <c r="G123" t="n">
-        <v>-14879270.05549241</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>2085221</v>
       </c>
       <c r="G124" t="n">
-        <v>-16964491.05549241</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>249922.0533</v>
       </c>
       <c r="G125" t="n">
-        <v>-17214413.10879241</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>2018843.6712</v>
       </c>
       <c r="G126" t="n">
-        <v>-19233256.77999241</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>740096</v>
       </c>
       <c r="G127" t="n">
-        <v>-18493160.77999241</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>3162176</v>
       </c>
       <c r="G128" t="n">
-        <v>-18493160.77999241</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1215850.6068</v>
       </c>
       <c r="G129" t="n">
-        <v>-18493160.77999241</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>3043766</v>
       </c>
       <c r="G130" t="n">
-        <v>-18493160.77999241</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>15798.4624</v>
       </c>
       <c r="G131" t="n">
-        <v>-18508959.24239241</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>2835.7102</v>
       </c>
       <c r="G132" t="n">
-        <v>-18508959.24239241</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>331761.758</v>
       </c>
       <c r="G133" t="n">
-        <v>-18508959.24239241</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>2311187.5071</v>
       </c>
       <c r="G134" t="n">
-        <v>-16197771.73529241</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>2779018</v>
       </c>
       <c r="G135" t="n">
-        <v>-16197771.73529241</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>2474846</v>
       </c>
       <c r="G136" t="n">
-        <v>-18672617.73529241</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>5040.5672</v>
       </c>
       <c r="G137" t="n">
-        <v>-18672617.73529241</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>2260548</v>
       </c>
       <c r="G138" t="n">
-        <v>-16412069.73529241</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>3390231</v>
       </c>
       <c r="G139" t="n">
-        <v>-16412069.73529241</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>1635893</v>
       </c>
       <c r="G140" t="n">
-        <v>-18047962.73529241</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>3928.6598</v>
       </c>
       <c r="G141" t="n">
-        <v>-18047962.73529241</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>725529.0399</v>
       </c>
       <c r="G142" t="n">
-        <v>-18047962.73529241</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>3085531</v>
       </c>
       <c r="G143" t="n">
-        <v>-14962431.73529241</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>2487929.8331</v>
       </c>
       <c r="G144" t="n">
-        <v>-14962431.73529241</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>1430860</v>
       </c>
       <c r="G145" t="n">
-        <v>-16393291.73529241</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>2938399.5501</v>
       </c>
       <c r="G146" t="n">
-        <v>-13454892.18519241</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>500710.5708</v>
       </c>
       <c r="G147" t="n">
-        <v>-13955602.75599241</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>55297.8506</v>
       </c>
       <c r="G148" t="n">
-        <v>-13900304.90539241</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>630000</v>
       </c>
       <c r="G149" t="n">
-        <v>-14530304.90539241</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>6930.7394</v>
       </c>
       <c r="G150" t="n">
-        <v>-14530304.90539241</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>7840.8435</v>
       </c>
       <c r="G151" t="n">
-        <v>-14530304.90539241</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>692986.8778</v>
       </c>
       <c r="G152" t="n">
-        <v>-15223291.78319241</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>2507575</v>
       </c>
       <c r="G153" t="n">
-        <v>-12715716.78319241</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>2125018</v>
       </c>
       <c r="G154" t="n">
-        <v>-14840734.78319241</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>2252983</v>
       </c>
       <c r="G155" t="n">
-        <v>-12587751.78319241</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>3263654</v>
       </c>
       <c r="G156" t="n">
-        <v>-15851405.78319241</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>1398301</v>
       </c>
       <c r="G157" t="n">
-        <v>-15851405.78319241</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>937767</v>
       </c>
       <c r="G158" t="n">
-        <v>-14913638.78319241</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>2836357</v>
       </c>
       <c r="G159" t="n">
-        <v>-14913638.78319241</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>2580213</v>
       </c>
       <c r="G160" t="n">
-        <v>-14913638.78319241</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>837959</v>
       </c>
       <c r="G161" t="n">
-        <v>-15751597.78319241</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>700</v>
       </c>
       <c r="G162" t="n">
-        <v>-15750897.78319241</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>2527563</v>
       </c>
       <c r="G163" t="n">
-        <v>-15750897.78319241</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>3676381.0079</v>
       </c>
       <c r="G164" t="n">
-        <v>-19427278.79109241</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>1542922</v>
       </c>
       <c r="G165" t="n">
-        <v>-19427278.79109241</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>2015566.6168</v>
       </c>
       <c r="G166" t="n">
-        <v>-17411712.17429241</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>777848.9895</v>
       </c>
       <c r="G167" t="n">
-        <v>-16633863.18479241</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>661884.2809</v>
       </c>
       <c r="G168" t="n">
-        <v>-16633863.18479241</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>540</v>
       </c>
       <c r="G169" t="n">
-        <v>-16633323.18479241</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>822133</v>
       </c>
       <c r="G170" t="n">
-        <v>-15811190.18479241</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>3548037</v>
       </c>
       <c r="G171" t="n">
-        <v>-19359227.18479241</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>2731215.97</v>
       </c>
       <c r="G172" t="n">
-        <v>-16628011.21479241</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>770971</v>
       </c>
       <c r="G173" t="n">
-        <v>-17398982.21479242</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>195211.3608</v>
       </c>
       <c r="G174" t="n">
-        <v>-17203770.85399241</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>1011766</v>
       </c>
       <c r="G175" t="n">
-        <v>-18215536.85399241</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>3637575</v>
       </c>
       <c r="G176" t="n">
-        <v>-21853111.85399241</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>2689043</v>
       </c>
       <c r="G177" t="n">
-        <v>-21853111.85399241</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>56376.7567</v>
       </c>
       <c r="G178" t="n">
-        <v>-21909488.61069242</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>184185.3712</v>
       </c>
       <c r="G179" t="n">
-        <v>-21725303.23949242</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>245530.2972</v>
       </c>
       <c r="G180" t="n">
-        <v>-21970833.53669242</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>3296664</v>
       </c>
       <c r="G181" t="n">
-        <v>-18674169.53669242</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>4291817.6276</v>
       </c>
       <c r="G182" t="n">
-        <v>-22965987.16429242</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>1791468.2355</v>
       </c>
       <c r="G183" t="n">
-        <v>-21174518.92879242</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>1354267</v>
       </c>
       <c r="G184" t="n">
-        <v>-21174518.92879242</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>262707</v>
       </c>
       <c r="G185" t="n">
-        <v>-20911811.92879242</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>3131006</v>
       </c>
       <c r="G186" t="n">
-        <v>-20911811.92879242</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>3401320</v>
       </c>
       <c r="G187" t="n">
-        <v>-24313131.92879242</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>632369</v>
       </c>
       <c r="G188" t="n">
-        <v>-24313131.92879242</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>137278.1903</v>
       </c>
       <c r="G189" t="n">
-        <v>-24175853.73849242</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>1291479</v>
       </c>
       <c r="G190" t="n">
-        <v>-25467332.73849242</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>3206252</v>
       </c>
       <c r="G191" t="n">
-        <v>-22261080.73849242</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>2675018</v>
       </c>
       <c r="G192" t="n">
-        <v>-22261080.73849242</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>399748</v>
       </c>
       <c r="G193" t="n">
-        <v>-22660828.73849242</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>135055.9681</v>
       </c>
       <c r="G194" t="n">
-        <v>-22525772.77039242</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>2159030</v>
       </c>
       <c r="G195" t="n">
-        <v>-20366742.77039242</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>2851682</v>
       </c>
       <c r="G196" t="n">
-        <v>-20366742.77039242</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>2797299</v>
       </c>
       <c r="G197" t="n">
-        <v>-20366742.77039242</v>
-      </c>
-      <c r="H197" t="n">
         <v>2</v>
       </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>1654425</v>
       </c>
       <c r="G198" t="n">
-        <v>-18712317.77039242</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>2986361</v>
       </c>
       <c r="G199" t="n">
-        <v>-21698678.77039242</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>3068718</v>
       </c>
       <c r="G200" t="n">
-        <v>-24767396.77039242</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>1475653</v>
       </c>
       <c r="G201" t="n">
-        <v>-23291743.77039242</v>
-      </c>
-      <c r="H201" t="n">
         <v>2</v>
       </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>2972910</v>
       </c>
       <c r="G202" t="n">
-        <v>-23291743.77039242</v>
-      </c>
-      <c r="H202" t="n">
         <v>2</v>
       </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>1938520</v>
       </c>
       <c r="G203" t="n">
-        <v>-23291743.77039242</v>
-      </c>
-      <c r="H203" t="n">
         <v>2</v>
       </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>782329</v>
       </c>
       <c r="G204" t="n">
-        <v>-24074072.77039242</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>239389.9659</v>
       </c>
       <c r="G205" t="n">
-        <v>-24074072.77039242</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>1526142</v>
       </c>
       <c r="G206" t="n">
-        <v>-22547930.77039242</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>3056275</v>
       </c>
       <c r="G207" t="n">
-        <v>-22547930.77039242</v>
-      </c>
-      <c r="H207" t="n">
         <v>2</v>
       </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>1227483</v>
       </c>
       <c r="G208" t="n">
-        <v>-23775413.77039242</v>
-      </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>2418222</v>
       </c>
       <c r="G209" t="n">
-        <v>-26193635.77039242</v>
-      </c>
-      <c r="H209" t="n">
         <v>2</v>
       </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>86430.80839999999</v>
       </c>
       <c r="G210" t="n">
-        <v>-26280066.57879242</v>
-      </c>
-      <c r="H210" t="n">
         <v>2</v>
       </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>4000</v>
       </c>
       <c r="G211" t="n">
-        <v>-26284066.57879242</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>530306.3447</v>
       </c>
       <c r="G212" t="n">
-        <v>-25753760.23409242</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>1372586</v>
       </c>
       <c r="G213" t="n">
-        <v>-24381174.23409242</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>3143648</v>
       </c>
       <c r="G214" t="n">
-        <v>-24381174.23409242</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>3387013</v>
       </c>
       <c r="G215" t="n">
-        <v>-27768187.23409242</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>808869</v>
       </c>
       <c r="G216" t="n">
-        <v>-27768187.23409242</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>3302625</v>
       </c>
       <c r="G217" t="n">
-        <v>-24465562.23409242</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>3155574</v>
       </c>
       <c r="G218" t="n">
-        <v>-27621136.23409242</v>
-      </c>
-      <c r="H218" t="n">
         <v>2</v>
       </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>710473</v>
       </c>
       <c r="G219" t="n">
-        <v>-27621136.23409242</v>
-      </c>
-      <c r="H219" t="n">
         <v>2</v>
       </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>2834788</v>
       </c>
       <c r="G220" t="n">
-        <v>-27621136.23409242</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>1672574</v>
       </c>
       <c r="G221" t="n">
-        <v>-25948562.23409242</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>2714214.2064</v>
       </c>
       <c r="G222" t="n">
-        <v>-28662776.44049242</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>22532.1863</v>
       </c>
       <c r="G223" t="n">
-        <v>-28685308.62679242</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>1775736</v>
       </c>
       <c r="G224" t="n">
-        <v>-26909572.62679242</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>3635474</v>
       </c>
       <c r="G225" t="n">
-        <v>-30545046.62679242</v>
-      </c>
-      <c r="H225" t="n">
         <v>2</v>
       </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>2112729</v>
       </c>
       <c r="G226" t="n">
-        <v>-30545046.62679242</v>
-      </c>
-      <c r="H226" t="n">
         <v>2</v>
       </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>839045</v>
       </c>
       <c r="G227" t="n">
-        <v>-29706001.62679242</v>
-      </c>
-      <c r="H227" t="n">
         <v>2</v>
       </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>3543757</v>
       </c>
       <c r="G228" t="n">
-        <v>-33249758.62679242</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>2918519</v>
       </c>
       <c r="G229" t="n">
-        <v>-33249758.62679242</v>
-      </c>
-      <c r="H229" t="n">
         <v>2</v>
       </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>270</v>
       </c>
       <c r="G230" t="n">
-        <v>-33249488.62679242</v>
-      </c>
-      <c r="H230" t="n">
         <v>2</v>
       </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>1669270</v>
       </c>
       <c r="G231" t="n">
-        <v>-34918758.62679242</v>
-      </c>
-      <c r="H231" t="n">
         <v>2</v>
       </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>3263533</v>
       </c>
       <c r="G232" t="n">
-        <v>-38182291.62679242</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>2398786</v>
       </c>
       <c r="G233" t="n">
-        <v>-38182291.62679242</v>
-      </c>
-      <c r="H233" t="n">
         <v>2</v>
       </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>270</v>
       </c>
       <c r="G234" t="n">
-        <v>-38182021.62679242</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>673268</v>
       </c>
       <c r="G235" t="n">
-        <v>-38855289.62679242</v>
-      </c>
-      <c r="H235" t="n">
         <v>2</v>
       </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>3065807</v>
       </c>
       <c r="G236" t="n">
-        <v>-35789482.62679242</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>3210816</v>
       </c>
       <c r="G237" t="n">
-        <v>-32578666.62679242</v>
-      </c>
-      <c r="H237" t="n">
         <v>2</v>
       </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>1141434</v>
       </c>
       <c r="G238" t="n">
-        <v>-33720100.62679242</v>
-      </c>
-      <c r="H238" t="n">
         <v>2</v>
       </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>5000</v>
       </c>
       <c r="G239" t="n">
-        <v>-33715100.62679242</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>2089238</v>
       </c>
       <c r="G240" t="n">
-        <v>-35804338.62679242</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>2951653</v>
       </c>
       <c r="G241" t="n">
-        <v>-35804338.62679242</v>
-      </c>
-      <c r="H241" t="n">
         <v>2</v>
       </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>1274915</v>
       </c>
       <c r="G242" t="n">
-        <v>-35804338.62679242</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>74796.5523</v>
       </c>
       <c r="G243" t="n">
-        <v>-35729542.07449242</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>465659.7053</v>
       </c>
       <c r="G244" t="n">
-        <v>-35729542.07449242</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>209772.6749</v>
       </c>
       <c r="G245" t="n">
-        <v>-35939314.74939242</v>
-      </c>
-      <c r="H245" t="n">
         <v>2</v>
       </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>230580.74</v>
       </c>
       <c r="G246" t="n">
-        <v>-35708734.00939242</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>100000</v>
       </c>
       <c r="G247" t="n">
-        <v>-35808734.00939242</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>315000</v>
       </c>
       <c r="G248" t="n">
-        <v>-35493734.00939242</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>153458.2674</v>
       </c>
       <c r="G249" t="n">
-        <v>-35340275.74199242</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>467055.9315</v>
       </c>
       <c r="G250" t="n">
-        <v>-35807331.67349242</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>283833.0037</v>
       </c>
       <c r="G251" t="n">
-        <v>-35807331.67349242</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>279156.2837</v>
       </c>
       <c r="G252" t="n">
-        <v>-35807331.67349242</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>377232.4485</v>
       </c>
       <c r="G253" t="n">
-        <v>-36184564.12199242</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>30000</v>
       </c>
       <c r="G254" t="n">
-        <v>-36154564.12199242</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>6184.6437</v>
       </c>
       <c r="G255" t="n">
-        <v>-36160748.76569243</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>7165.4539</v>
       </c>
       <c r="G256" t="n">
-        <v>-36167914.21959243</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>920697.6023</v>
       </c>
       <c r="G257" t="n">
-        <v>-37088611.82189243</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>805513.5237659893</v>
       </c>
       <c r="G258" t="n">
-        <v>-37894125.34565842</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>1348234.989</v>
       </c>
       <c r="G259" t="n">
-        <v>-39242360.33465842</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>117061.7515</v>
       </c>
       <c r="G260" t="n">
-        <v>-39242360.33465842</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>500000</v>
       </c>
       <c r="G261" t="n">
-        <v>-39742360.33465842</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>55566.8839</v>
       </c>
       <c r="G262" t="n">
-        <v>-39797927.21855842</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>751617.8695</v>
       </c>
       <c r="G263" t="n">
-        <v>-39797927.21855842</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>162875.6762</v>
       </c>
       <c r="G264" t="n">
-        <v>-39960802.89475843</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>505446.7569</v>
       </c>
       <c r="G265" t="n">
-        <v>-40466249.65165842</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>1093051.2516</v>
       </c>
       <c r="G266" t="n">
-        <v>-41559300.90325842</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,15 @@
         <v>155672.9628</v>
       </c>
       <c r="G267" t="n">
-        <v>-41559300.90325842</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8423,15 @@
         <v>413793.542</v>
       </c>
       <c r="G268" t="n">
-        <v>-41973094.44525842</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8453,15 @@
         <v>320830.3447</v>
       </c>
       <c r="G269" t="n">
-        <v>-42293924.78995842</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8483,15 @@
         <v>538148.1688</v>
       </c>
       <c r="G270" t="n">
-        <v>-42293924.78995842</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8513,15 @@
         <v>19416.6988</v>
       </c>
       <c r="G271" t="n">
-        <v>-42313341.48875842</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8543,15 @@
         <v>105702.3766</v>
       </c>
       <c r="G272" t="n">
-        <v>-42207639.11215843</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8573,15 @@
         <v>122794.861</v>
       </c>
       <c r="G273" t="n">
-        <v>-42330433.97315843</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8603,15 @@
         <v>269</v>
       </c>
       <c r="G274" t="n">
-        <v>-42330164.97315843</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8633,15 @@
         <v>269</v>
       </c>
       <c r="G275" t="n">
-        <v>-42330433.97315843</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8663,15 @@
         <v>292788.5058</v>
       </c>
       <c r="G276" t="n">
-        <v>-42623222.47895843</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8693,15 @@
         <v>539211.7166</v>
       </c>
       <c r="G277" t="n">
-        <v>-42084010.76235843</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8723,15 @@
         <v>1344.6653</v>
       </c>
       <c r="G278" t="n">
-        <v>-42084010.76235843</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8753,15 @@
         <v>500000</v>
       </c>
       <c r="G279" t="n">
-        <v>-42584010.76235843</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8783,15 @@
         <v>1119521.2965</v>
       </c>
       <c r="G280" t="n">
-        <v>-42584010.76235843</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8813,15 @@
         <v>1169908.5843</v>
       </c>
       <c r="G281" t="n">
-        <v>-42584010.76235843</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8843,15 @@
         <v>849238.0806</v>
       </c>
       <c r="G282" t="n">
-        <v>-43433248.84295843</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8873,15 @@
         <v>578596.5656</v>
       </c>
       <c r="G283" t="n">
-        <v>-44011845.40855843</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8903,15 @@
         <v>894049.3165</v>
       </c>
       <c r="G284" t="n">
-        <v>-44905894.72505843</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8933,15 @@
         <v>1038054.3217</v>
       </c>
       <c r="G285" t="n">
-        <v>-45943949.04675843</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8963,15 @@
         <v>1433200.2723</v>
       </c>
       <c r="G286" t="n">
-        <v>-47377149.31905843</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +8993,15 @@
         <v>1091934.4768</v>
       </c>
       <c r="G287" t="n">
-        <v>-48469083.79585843</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9023,15 @@
         <v>157842.8799</v>
       </c>
       <c r="G288" t="n">
-        <v>-48626926.67575843</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9053,15 @@
         <v>18701.0578</v>
       </c>
       <c r="G289" t="n">
-        <v>-48645627.73355843</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9083,15 @@
         <v>115738.0562</v>
       </c>
       <c r="G290" t="n">
-        <v>-48761365.78975843</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9113,15 @@
         <v>275625.7987</v>
       </c>
       <c r="G291" t="n">
-        <v>-48761365.78975843</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9143,15 @@
         <v>1514946.0556</v>
       </c>
       <c r="G292" t="n">
-        <v>-47246419.73415843</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9173,15 @@
         <v>3099374</v>
       </c>
       <c r="G293" t="n">
-        <v>-50345793.73415843</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9203,15 @@
         <v>916702.8169</v>
       </c>
       <c r="G294" t="n">
-        <v>-51262496.55105843</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9233,15 @@
         <v>590385.6635</v>
       </c>
       <c r="G295" t="n">
-        <v>-51852882.21455843</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9263,15 @@
         <v>228419.8771</v>
       </c>
       <c r="G296" t="n">
-        <v>-52081302.09165843</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9293,15 @@
         <v>927568.4197</v>
       </c>
       <c r="G297" t="n">
-        <v>-51153733.67195843</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9323,15 @@
         <v>39735.9621</v>
       </c>
       <c r="G298" t="n">
-        <v>-51113997.70985843</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9353,15 @@
         <v>266558.9843</v>
       </c>
       <c r="G299" t="n">
-        <v>-51380556.69415843</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9383,15 @@
         <v>1047737.603585556</v>
       </c>
       <c r="G300" t="n">
-        <v>-52428294.29774399</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9413,15 @@
         <v>437926.9988</v>
       </c>
       <c r="G301" t="n">
-        <v>-51990367.29894399</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9443,15 @@
         <v>552530.7830000001</v>
       </c>
       <c r="G302" t="n">
-        <v>-52542898.08194399</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9473,15 @@
         <v>761943.5520326257</v>
       </c>
       <c r="G303" t="n">
-        <v>-51780954.52991136</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9503,15 @@
         <v>1186340.4802</v>
       </c>
       <c r="G304" t="n">
-        <v>-52967295.01011136</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9533,21 @@
         <v>699428.0309</v>
       </c>
       <c r="G305" t="n">
-        <v>-53666723.04101136</v>
+        <v>1</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>1.774</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9569,21 @@
         <v>3178417.133</v>
       </c>
       <c r="G306" t="n">
-        <v>-50488305.90801136</v>
+        <v>1</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>1.773</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9605,21 @@
         <v>2355383.919</v>
       </c>
       <c r="G307" t="n">
-        <v>-52843689.82701136</v>
+        <v>1</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1.781</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9641,19 @@
         <v>964477.278</v>
       </c>
       <c r="G308" t="n">
-        <v>-52843689.82701136</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9675,19 @@
         <v>542</v>
       </c>
       <c r="G309" t="n">
-        <v>-52843147.82701136</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9709,19 @@
         <v>298381.0527</v>
       </c>
       <c r="G310" t="n">
-        <v>-53141528.87971136</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9743,19 @@
         <v>4127.503</v>
       </c>
       <c r="G311" t="n">
-        <v>-53145656.38271136</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9777,19 @@
         <v>24605.8528</v>
       </c>
       <c r="G312" t="n">
-        <v>-53121050.52991136</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9811,19 @@
         <v>20900.3155</v>
       </c>
       <c r="G313" t="n">
-        <v>-53100150.21441136</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9845,19 @@
         <v>24512.6197</v>
       </c>
       <c r="G314" t="n">
-        <v>-53124662.83411136</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +9879,19 @@
         <v>72838.2703</v>
       </c>
       <c r="G315" t="n">
-        <v>-53124662.83411136</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +9913,19 @@
         <v>646.2909</v>
       </c>
       <c r="G316" t="n">
-        <v>-53124016.54321136</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +9947,19 @@
         <v>237397.0385</v>
       </c>
       <c r="G317" t="n">
-        <v>-53361413.58171137</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +9981,19 @@
         <v>38612.0139</v>
       </c>
       <c r="G318" t="n">
-        <v>-53400025.59561136</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +10015,19 @@
         <v>275</v>
       </c>
       <c r="G319" t="n">
-        <v>-53400300.59561136</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +10049,19 @@
         <v>24901.1425</v>
       </c>
       <c r="G320" t="n">
-        <v>-53425201.73811136</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10083,19 @@
         <v>291113.6727</v>
       </c>
       <c r="G321" t="n">
-        <v>-53716315.41081136</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10117,19 @@
         <v>1035408</v>
       </c>
       <c r="G322" t="n">
-        <v>-52680907.41081136</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10151,19 @@
         <v>1893262</v>
       </c>
       <c r="G323" t="n">
-        <v>-52680907.41081136</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,18 +10185,19 @@
         <v>783811</v>
       </c>
       <c r="G324" t="n">
-        <v>-53464718.41081136</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11107,18 +10219,19 @@
         <v>400000</v>
       </c>
       <c r="G325" t="n">
-        <v>-53864718.41081136</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11140,18 +10253,19 @@
         <v>276</v>
       </c>
       <c r="G326" t="n">
-        <v>-53864442.41081136</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11173,18 +10287,19 @@
         <v>400277</v>
       </c>
       <c r="G327" t="n">
-        <v>-53864442.41081136</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11206,18 +10321,19 @@
         <v>277</v>
       </c>
       <c r="G328" t="n">
-        <v>-53864719.41081136</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11239,18 +10355,19 @@
         <v>20000</v>
       </c>
       <c r="G329" t="n">
-        <v>-53884719.41081136</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11272,18 +10389,19 @@
         <v>179144.2308</v>
       </c>
       <c r="G330" t="n">
-        <v>-54063863.64161137</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11305,24 +10423,19 @@
         <v>328712.4369</v>
       </c>
       <c r="G331" t="n">
-        <v>-54392576.07851136</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>1.793</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11344,22 +10457,19 @@
         <v>998786.2448</v>
       </c>
       <c r="G332" t="n">
-        <v>-53393789.83371136</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
+      <c r="J332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11381,22 +10491,19 @@
         <v>1749438</v>
       </c>
       <c r="G333" t="n">
-        <v>-55143227.83371136</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
+      <c r="J333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11418,22 +10525,19 @@
         <v>613909</v>
       </c>
       <c r="G334" t="n">
-        <v>-55757136.83371136</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
+      <c r="J334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11455,22 +10559,19 @@
         <v>386788.3938</v>
       </c>
       <c r="G335" t="n">
-        <v>-56143925.22751136</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
+      <c r="J335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11492,22 +10593,19 @@
         <v>663654</v>
       </c>
       <c r="G336" t="n">
-        <v>-56143925.22751136</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
+      <c r="J336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11529,22 +10627,19 @@
         <v>625.1149</v>
       </c>
       <c r="G337" t="n">
-        <v>-56143300.11261136</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
+      <c r="J337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11566,22 +10661,19 @@
         <v>4000544.0513</v>
       </c>
       <c r="G338" t="n">
-        <v>-60143844.16391136</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
+      <c r="J338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11603,22 +10695,19 @@
         <v>1623623.0492</v>
       </c>
       <c r="G339" t="n">
-        <v>-58520221.11471136</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
+      <c r="J339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -11640,22 +10729,19 @@
         <v>1976209</v>
       </c>
       <c r="G340" t="n">
-        <v>-56544012.11471136</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
+      <c r="J340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -11677,22 +10763,19 @@
         <v>277</v>
       </c>
       <c r="G341" t="n">
-        <v>-56544289.11471136</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
+      <c r="J341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -11714,22 +10797,19 @@
         <v>9135.5939</v>
       </c>
       <c r="G342" t="n">
-        <v>-56553424.70861136</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
+      <c r="J342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -11751,22 +10831,19 @@
         <v>277</v>
       </c>
       <c r="G343" t="n">
-        <v>-56553147.70861136</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
+      <c r="J343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -11788,22 +10865,19 @@
         <v>277</v>
       </c>
       <c r="G344" t="n">
-        <v>-56553424.70861136</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
+      <c r="J344" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -11825,22 +10899,19 @@
         <v>1698597</v>
       </c>
       <c r="G345" t="n">
-        <v>-56553424.70861136</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
+      <c r="J345" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -11862,22 +10933,19 @@
         <v>2599352</v>
       </c>
       <c r="G346" t="n">
-        <v>-59152776.70861136</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
+      <c r="J346" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>1</v>
+      </c>
+      <c r="L346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -11899,22 +10967,19 @@
         <v>1558316.0386</v>
       </c>
       <c r="G347" t="n">
-        <v>-60711092.74721136</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
+      <c r="J347" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
+      <c r="L347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -11936,22 +11001,19 @@
         <v>556</v>
       </c>
       <c r="G348" t="n">
-        <v>-60710536.74721136</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
+      <c r="J348" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>1</v>
+      </c>
+      <c r="L348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -11973,22 +11035,19 @@
         <v>556</v>
       </c>
       <c r="G349" t="n">
-        <v>-60710536.74721136</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
+      <c r="J349" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>1</v>
+      </c>
+      <c r="L349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -12010,22 +11069,19 @@
         <v>383.6242</v>
       </c>
       <c r="G350" t="n">
-        <v>-60710153.12301136</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
+      <c r="J350" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
+      <c r="L350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -12047,22 +11103,19 @@
         <v>20000</v>
       </c>
       <c r="G351" t="n">
-        <v>-60710153.12301136</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
+      <c r="J351" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
+      <c r="L351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -12084,22 +11137,19 @@
         <v>683.99</v>
       </c>
       <c r="G352" t="n">
-        <v>-60710153.12301136</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
+      <c r="J352" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>1</v>
+      </c>
+      <c r="L352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -12121,24 +11171,19 @@
         <v>700</v>
       </c>
       <c r="G353" t="n">
-        <v>-60710853.12301136</v>
-      </c>
-      <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>1</v>
+      </c>
+      <c r="L353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -12160,24 +11205,19 @@
         <v>13105.6922</v>
       </c>
       <c r="G354" t="n">
-        <v>-60697747.43081136</v>
-      </c>
-      <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>1</v>
+      </c>
+      <c r="L354" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
